--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="862"/>
+    <workbookView xWindow="1740" yWindow="1340" windowWidth="33240" windowHeight="13380" tabRatio="862" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="项目概览" sheetId="12" r:id="rId1"/>
-    <sheet name="星巴克CRM" sheetId="4" r:id="rId2"/>
-    <sheet name="移动咪咕" sheetId="1" r:id="rId3"/>
-    <sheet name="百胜" sheetId="7" r:id="rId4"/>
-    <sheet name="徐州" sheetId="8" r:id="rId5"/>
-    <sheet name="厦门银联" sheetId="9" r:id="rId6"/>
-    <sheet name="软评" sheetId="10" r:id="rId7"/>
-    <sheet name="百威英博" sheetId="11" r:id="rId8"/>
-    <sheet name="安畅" sheetId="14" r:id="rId9"/>
-    <sheet name="新致云" sheetId="13" r:id="rId10"/>
-    <sheet name="客户联系人" sheetId="5" r:id="rId11"/>
+    <sheet name="星巴克CRM " sheetId="15" r:id="rId2"/>
+    <sheet name="星巴克邮件和短信监控" sheetId="16" r:id="rId3"/>
+    <sheet name="移动咪咕" sheetId="1" r:id="rId4"/>
+    <sheet name="百胜" sheetId="7" r:id="rId5"/>
+    <sheet name="徐州" sheetId="8" r:id="rId6"/>
+    <sheet name="厦门银联" sheetId="9" r:id="rId7"/>
+    <sheet name="软评" sheetId="10" r:id="rId8"/>
+    <sheet name="百威英博" sheetId="11" r:id="rId9"/>
+    <sheet name="安畅" sheetId="14" r:id="rId10"/>
+    <sheet name="新致云" sheetId="13" r:id="rId11"/>
+    <sheet name="客户联系人" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">移动咪咕!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">移动咪咕!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="311">
   <si>
     <t>项目名称</t>
   </si>
@@ -470,10 +471,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Hantao</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 进行中</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -498,11 +495,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>需求和解决方案已提交，待反馈；
-JianPing已动手进行原型开发。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>APP4.0压力测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -571,654 +563,759 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Yak／Jason</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百胜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目需求沟通阶段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品／研发负责人</t>
+  </si>
+  <si>
+    <t>产品／研发负责人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill／Jason</t>
+  </si>
+  <si>
+    <t>Skill／Jason</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>软评</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控宝APＩ接口开发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目商务阶段
+已完成解决方案、设计文档、静态Demo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百威英博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nathan/Alvin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目商务阶段
+正在进行需求调研与确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>软评</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百威英博</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控宝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否延期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期原因</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行维护和交接中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动－需求确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务阶段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.30</t>
+  </si>
+  <si>
+    <t>星巴克自定义监控（邮件和短信告警）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JianPing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hantao</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dean</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星巴克app4.0压力测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整体进展</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售负责人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开始时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目结束时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目问题描述及重要事情描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试运行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、自定义监控功能不满足客户需求，调整较大与公司分歧较大，最终决定9月30日完成开发。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求调研</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台部署</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控宝后端部署</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>karl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>karl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待客户提供需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件告警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短线告警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待客户确认是否使用短信网关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品试运行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、插件读取没有区分主机、进程相关纤细。
+2、自定义监控功能不支持分组、列表展示内容不支持自定义。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户提供需求。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件告警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短线告警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完毕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户提供需求，确定使用我公司短信网关。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次开发交付</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>caesar\sevn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计编写完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义监控功能：分组列表自定义设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始开发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义开发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PJ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控宝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新致云</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新致云</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+  </si>
+  <si>
+    <t>自定制开发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安畅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动－需求确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动－需求确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器监控、服务监控、API接口调用远程支持</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安畅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求沟通确认中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实施</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试报告修改优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目当前状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nathan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件监控需求一和需求二开发中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试报告修改和优化中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星巴克</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｍichael</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.14</t>
+  </si>
+  <si>
+    <t>2016.6.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.7.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>项目处于验收阶段　
-需要提交的文档：深度分析报告，</t>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Songti SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮件监控需求：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="14"/>
+        <rFont val="Songti SC Regular"/>
         <charset val="134"/>
       </rPr>
-      <t>运维文档</t>
+      <t xml:space="preserve">
+1.  通过smtp服务和api调用两种方式给特定的属于不同邮件服务商的邮件列表发送可以自定义内容的邮件，记录发送邮件时间和各个邮件账号收到邮件的时间，如果超过收邮件时间的阈值没有收到邮件，表示邮件发送不成功。收到邮件后判断邮件内容是否准确。在此基础上比较采用这两种方式发送邮件到收到邮件的时间差异。这个过程中可以配置内容有：smtp服务地址列表、发送邮件api、接收邮件的邮件账号列表、不同邮件账号的接收邮件超时时间阈值、发送邮件的内容（文本）。
+2.  在实现1的基础上，发送邮件的内容中包含有一个链接，收到邮件后提取其中包含的链接地址，访问这个链接，判断这个链接中到达的页面对不对（匹配这个页面是否包含某些关键字）
+短信监控：
+1.  跟邮件监控的第一点差不多，只是发送邮件改成发送短信，用android系统的手机接收短信。这里面需要确认发送短信除了api方式，是否还提供别的发送短信的功能
+2.  跟邮件监控第二点一致，发送邮件改成发送短信
+需要提供如下信息：
+1.  现有smtp服务地址和相应的发送邮件的账号
+2.  发送邮件和短信的api和调用说明（参数）
+3.  除api外的发送短信方式（如有）
+4.  提供邮件监控中第二点中提到的发送的邮件内容包含的一个链接地址，和跳转到相应的页面的关键字（供开发测试使用）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；系统维护移交正在协商中</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.17</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yak／Jason</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周Ben请假</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michael</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>百胜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目需求沟通阶段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.5.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品／研发负责人</t>
-  </si>
-  <si>
-    <t>产品／研发负责人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill／Jason</t>
-  </si>
-  <si>
-    <t>Skill／Jason</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>软评</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控宝APＩ接口开发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目商务阶段
-已完成解决方案、设计文档、静态Demo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.3.20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>百威英博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nathan/Alvin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目商务阶段
-正在进行需求调研与确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bryan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michael</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>软评</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>百威英博</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控宝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否延期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目当前状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期原因</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行维护和交接中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目启动－需求确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务阶段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiaoPing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.6.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加新的需求三：业务流程监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求调研和确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4.21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件监控需求一和需求二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件监控需求三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信监控</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2016.6.30</t>
-  </si>
-  <si>
-    <t>2016.6.17</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>星巴克自定义监控（邮件和短信告警）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.8.14</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>JianPing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hantao</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michael</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dean</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nathan/Alvin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>星巴克app4.0压力测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bryan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目整体进展</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售负责人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目开始时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目结束时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目问题描述及重要事情描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>试运行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.3.30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、自定义监控功能不满足客户需求，调整较大与公司分歧较大，最终决定9月30日完成开发。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划开始时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求调研</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求范围</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.4.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.4.9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台部署</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控宝后端部署</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.4.25</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.4.30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.4.30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>karl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>karl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jvm监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易流监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待客户提供需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件告警</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>短线告警</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待客户确认是否使用短信网关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品试运行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、插件读取没有区分主机、进程相关纤细。
-2、自定义监控功能不支持分组、列表展示内容不支持自定义。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易流监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户提供需求。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件告警</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>短线告警</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完毕</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户提供需求，确定使用我公司短信网关。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次开发交付</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jvm监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>caesar\sevn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易流监控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计编写完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jason</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jason</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义监控功能：分组列表自定义设置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始开发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成测试，中文测试报告已提交，英文测试报告已完成并提交</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义开发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求确认和原型开发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>PJ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控宝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新致云</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新致云</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力测试已完成，中文报告已提交，英文报告已修改完成提交</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期</t>
-  </si>
-  <si>
-    <t>延期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定制开发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安畅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目启动－需求确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目启动－需求确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器监控、服务监控、API接口调用远程支持</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安畅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求沟通确认中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.6.13</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rain</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在确定培训事宜，升级和扩容放在培训之后，应该可以追加新的合同</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目实施</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.07.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.7.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.7.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.7.11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.7.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目处于验收阶段　
+正在确定培训计划，计划确定后开始验收。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1292,6 +1389,17 @@
       <sz val="12"/>
       <color rgb="FF008000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Songti SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Songti SC Regular"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1435,7 +1543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1773,8 +1881,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1878,6 +1998,12 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1926,8 +2052,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="117">
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="3"/>
@@ -1986,6 +2127,8 @@
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -2040,6 +2183,8 @@
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2383,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2392,7 +2537,7 @@
     <col min="1" max="1" width="25.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="55" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="9" width="17" customWidth="1"/>
@@ -2406,25 +2551,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>158</v>
+      <c r="E1" s="54" t="s">
+        <v>152</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="32" customHeight="1">
@@ -2434,76 +2579,74 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>162</v>
+      <c r="C2" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>175</v>
+      <c r="I3" s="37" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="51" customHeight="1">
       <c r="A5" s="30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>171</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>21</v>
@@ -2511,24 +2654,22 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="23"/>
+        <v>276</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>21</v>
@@ -2542,17 +2683,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>285</v>
-      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
         <v>71</v>
@@ -2563,16 +2700,16 @@
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="23"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
@@ -2584,134 +2721,134 @@
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="43" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="11" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="43" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" ht="43" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" ht="32" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>287</v>
+        <v>268</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2742,6 +2879,99 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="56" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2777,7 +3007,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>76</v>
@@ -2791,31 +3021,31 @@
     </row>
     <row r="2" spans="1:12" ht="56" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L2" s="18"/>
     </row>
@@ -2830,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -2933,22 +3163,22 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
@@ -2964,16 +3194,16 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="40"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="14">
         <v>13426056754</v>
       </c>
@@ -2989,8 +3219,8 @@
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="41"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="32" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -3238,7 +3468,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3358,19 +3588,19 @@
         <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -3393,10 +3623,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>90</v>
@@ -3414,7 +3644,7 @@
         <v>88</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>21</v>
@@ -3432,13 +3662,13 @@
         <v>99</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -3446,7 +3676,7 @@
         <v>88</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>21</v>
@@ -3455,31 +3685,31 @@
     </row>
     <row r="7" spans="1:12" ht="38" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="L7" s="4"/>
     </row>
@@ -3502,11 +3732,478 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="M1" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+    </row>
+    <row r="2" spans="1:22" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+    </row>
+    <row r="3" spans="1:22" ht="42" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+    </row>
+    <row r="4" spans="1:22" ht="66" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+    </row>
+    <row r="5" spans="1:22" ht="50" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+    </row>
+    <row r="6" spans="1:22" ht="55" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+    </row>
+    <row r="7" spans="1:22" ht="32" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+    </row>
+    <row r="8" spans="1:22" ht="17">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+    </row>
+    <row r="9" spans="1:22" ht="17">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+    </row>
+    <row r="10" spans="1:22" ht="17">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+    </row>
+    <row r="11" spans="1:22" ht="17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+    </row>
+    <row r="12" spans="1:22" ht="17">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+    </row>
+    <row r="13" spans="1:22" ht="17">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+    </row>
+    <row r="14" spans="1:22" ht="17">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:V14"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3563,7 +4260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" customHeight="1">
+    <row r="2" spans="1:12" ht="78" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3571,23 +4268,21 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="33" t="s">
-        <v>133</v>
-      </c>
+      <c r="H2" s="33"/>
       <c r="I2" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>71</v>
@@ -3623,7 +4318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -3664,7 +4359,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
@@ -3678,7 +4373,7 @@
     </row>
     <row r="2" spans="1:12" ht="32" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>73</v>
@@ -3687,22 +4382,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -3723,7 +4418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -3762,7 +4457,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>76</v>
@@ -3776,7 +4471,7 @@
     </row>
     <row r="2" spans="1:12" ht="44" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>13</v>
@@ -3785,20 +4480,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>77</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L2" s="18"/>
     </row>
@@ -3813,11 +4508,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
@@ -3831,63 +4526,63 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15">
       <c r="A1" s="16" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+        <v>178</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F2" s="31"/>
-      <c r="G2" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="42" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>2</v>
@@ -3896,19 +4591,19 @@
         <v>74</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>75</v>
@@ -3916,26 +4611,26 @@
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -3943,444 +4638,444 @@
     </row>
     <row r="5" spans="1:11" ht="34">
       <c r="A5" s="18" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="17">
-      <c r="A6" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>124</v>
+      <c r="A6" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="17">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="17">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="18" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="17">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="18" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="17">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="18" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="17">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="18" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="17">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="18" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="34">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="18" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="17">
-      <c r="A14" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>228</v>
+      <c r="A14" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>217</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="17">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="17">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="18" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="119">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="18" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="17">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="17">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="18" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="17">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="18" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>243</v>
+      <c r="A22" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>232</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="17">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="18" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="17">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="18" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:11" ht="51">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="18" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -4388,10 +5083,10 @@
     </row>
     <row r="26" spans="1:11" ht="17">
       <c r="A26" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4516,7 +5211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -4557,7 +5252,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
@@ -4571,31 +5266,31 @@
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -4616,7 +5311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -4658,7 +5353,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>76</v>
@@ -4672,7 +5367,7 @@
     </row>
     <row r="2" spans="1:12" ht="45" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>35</v>
@@ -4681,22 +5376,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L2" s="18"/>
     </row>
@@ -4710,97 +5405,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="56" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>